--- a/Design/1NF - 3NF.xlsx
+++ b/Design/1NF - 3NF.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>2NF</t>
   </si>
@@ -118,13 +118,309 @@
   </si>
   <si>
     <t>3NF</t>
+  </si>
+  <si>
+    <r>
+      <t>Employee(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EmployeeID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Employee First Name, Employee Last Name, Password, Employee Email)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Location(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LocationID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Location Name)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Product-Location(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProductID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LocationID)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Category(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Member(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MemberID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, First Name, Last Name, House / Flat No. , Street, Town, City , County, Postcode, Telephone No. Member Email)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Order(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OrderID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MemebrID, EmployeeID, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date, Time)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Product-Order(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ProductID, OrderID, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quantity)</t>
+    </r>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Product-OrderID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Product(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ProductID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Product Name, Size, Price Stock)</t>
+    </r>
+  </si>
+  <si>
+    <t>House</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,16 +451,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,18 +497,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -271,6 +615,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -305,6 +650,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,29 +826,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:R24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="S4" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="4" max="6" width="20" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="17" max="18" width="16" customWidth="1"/>
-    <col min="20" max="20" width="86.140625" customWidth="1"/>
-    <col min="22" max="22" width="25.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" customWidth="1"/>
+    <col min="19" max="19" width="131.140625" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" customWidth="1"/>
+    <col min="22" max="22" width="86.140625" customWidth="1"/>
+    <col min="24" max="24" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="21">
+    <row r="2" spans="2:20" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
@@ -513,7 +862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -521,7 +870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -537,19 +886,22 @@
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="2:18">
+      <c r="S6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,21 +915,21 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18">
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -589,21 +941,24 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18">
+      <c r="S8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -612,211 +967,265 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" t="s">
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" t="s">
+      <c r="M10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>5</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>27</v>
       </c>
-      <c r="O10" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="s">
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" t="s">
+      <c r="M14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="M15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O15" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="D16" t="s">
+      <c r="S16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>11</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17">
-      <c r="D17" t="s">
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" t="s">
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17">
-      <c r="D18" t="s">
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" t="s">
+    </row>
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17">
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17">
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17">
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17">
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17">
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17">
-      <c r="D24" t="s">
+      <c r="H25" t="s">
         <v>19</v>
       </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="Q25" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -827,24 +1236,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
